--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/72.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/72.xlsx
@@ -479,13 +479,13 @@
         <v>-2.352188093797841</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.36230175036232</v>
+        <v>-10.82863330192788</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.8870324159717167</v>
+        <v>-1.331097143757382</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.374127642069602</v>
+        <v>-7.911982444059515</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-1.863040914540545</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.96048906720078</v>
+        <v>-11.3863915875911</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.912156545124989</v>
+        <v>-1.409808068441839</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.2815650609786</v>
+        <v>-7.829959166756101</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-1.358584414952171</v>
       </c>
       <c r="E4" t="n">
-        <v>-12.35433172128559</v>
+        <v>-11.74917929933532</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.8491432915477614</v>
+        <v>-1.328138283315151</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.753761964217255</v>
+        <v>-7.32607570728659</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.9387053569785099</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.93068107698405</v>
+        <v>-12.30743509250653</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.8629818556514659</v>
+        <v>-1.381463232789502</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.468245023844893</v>
+        <v>-7.004568026402323</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.6146202609222112</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.3623473939786</v>
+        <v>-12.74326476180474</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.038811482815847</v>
+        <v>-1.600680751571363</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.049382979029551</v>
+        <v>-6.578884891806442</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.4131307237873307</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.02718762458429</v>
+        <v>-13.37866040331939</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.8509893062484448</v>
+        <v>-1.458629265738635</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.585705981586981</v>
+        <v>-6.106841912848008</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.329271982212444</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.76368202864275</v>
+        <v>-14.06900443986077</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.9852377795875039</v>
+        <v>-1.555001706956581</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.305386685442784</v>
+        <v>-5.841487118851904</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3534763197420822</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.36808818933104</v>
+        <v>-14.63261498489423</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.9242014637393769</v>
+        <v>-1.533949283987085</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.956070953322691</v>
+        <v>-5.502095352285839</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.4598083739606635</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.06393099306593</v>
+        <v>-15.32070714534683</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.8872157082115009</v>
+        <v>-1.502017157356115</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.852615576267371</v>
+        <v>-5.376985306330305</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.6282897121281775</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.57763367966674</v>
+        <v>-15.83579761604886</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.9424259492950596</v>
+        <v>-1.52481085660356</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.623552645748532</v>
+        <v>-5.163711693038588</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.8422878994920538</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.14950546779334</v>
+        <v>-16.43316011780829</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9067756086570395</v>
+        <v>-1.518670566570791</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.335364875596458</v>
+        <v>-4.895790807685505</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-1.096576899451366</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.53788863159314</v>
+        <v>-16.80435308797691</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8983441656269679</v>
+        <v>-1.508733508713921</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.811620392716048</v>
+        <v>-4.369283848905491</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-1.389887382284754</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.35475668279695</v>
+        <v>-17.54535124421292</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6786160470342794</v>
+        <v>-1.324472438519468</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.333005077731068</v>
+        <v>-3.906955358655618</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-1.714063089983271</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.04839997965444</v>
+        <v>-18.26841294555577</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.5405053443569111</v>
+        <v>-1.213633002661415</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.232495468815137</v>
+        <v>-3.829802418009327</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-2.049698723746943</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.8644955849906</v>
+        <v>-19.08412887410951</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.353586536685588</v>
+        <v>-1.01630581423092</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.886662289250943</v>
+        <v>-3.531795420725958</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-2.364950746244209</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.64882926363272</v>
+        <v>-19.8165515719842</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.09721306243890813</v>
+        <v>-0.8001388020111807</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.645750824660342</v>
+        <v>-3.276783545974818</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-2.624949318790364</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.27720743082421</v>
+        <v>-20.39274382004856</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1479588282534384</v>
+        <v>-0.8280908685782659</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.480800901157435</v>
+        <v>-3.150076239072593</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-2.797248715967072</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.79821562241069</v>
+        <v>-20.91219402759688</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1694116849328433</v>
+        <v>-0.5453887733168749</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.046031708389396</v>
+        <v>-2.790784172187104</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-2.859782765457406</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.25130094685431</v>
+        <v>-21.34083602263499</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4244890211981922</v>
+        <v>-0.2512963745831822</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.617298067231392</v>
+        <v>-2.36295389992518</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-2.804625836974615</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.86623331902734</v>
+        <v>-21.98543555304738</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5950817272258829</v>
+        <v>-0.05733390798301053</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.456275834581003</v>
+        <v>-2.252376310123962</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.639300054033892</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.31417336845416</v>
+        <v>-22.45687628607509</v>
       </c>
       <c r="F22" t="n">
-        <v>0.777601521142386</v>
+        <v>0.1558218745831316</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.377787479044855</v>
+        <v>-2.206225942606877</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.386522246920264</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.66663125325626</v>
+        <v>-22.77662959837857</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9578563466672705</v>
+        <v>0.3296221948070451</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.132202062339758</v>
+        <v>-1.979427980479656</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.079465818023964</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.22487395412462</v>
+        <v>-23.2720161533038</v>
       </c>
       <c r="F24" t="n">
-        <v>1.153651735665284</v>
+        <v>0.5300522590110295</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.20639614254382</v>
+        <v>-2.083328495831594</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.75497645399501</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.39161752311684</v>
+        <v>-23.45017621037401</v>
       </c>
       <c r="F25" t="n">
-        <v>1.370787578295311</v>
+        <v>0.7469393478870636</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.364957022259964</v>
+        <v>-2.261252891450652</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.448177937334549</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.52437347393195</v>
+        <v>-23.58672892901321</v>
       </c>
       <c r="F26" t="n">
-        <v>1.450284041150271</v>
+        <v>0.8193397826018087</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.458553895275464</v>
+        <v>-2.412914127569207</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-1.18557407386455</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.51907109128105</v>
+        <v>-23.63130822018929</v>
       </c>
       <c r="F27" t="n">
-        <v>1.442323921022502</v>
+        <v>0.8639976275949364</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.555620228544021</v>
+        <v>-2.538979911632187</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-0.9851637280646531</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.48720442616429</v>
+        <v>-23.57917467027353</v>
       </c>
       <c r="F28" t="n">
-        <v>1.466832711942213</v>
+        <v>0.901821290504683</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.602399026597508</v>
+        <v>-2.624210803131823</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-0.855631017743248</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.56003690687281</v>
+        <v>-23.619420409209</v>
       </c>
       <c r="F29" t="n">
-        <v>1.606108629572495</v>
+        <v>1.028882089583634</v>
       </c>
       <c r="G29" t="n">
-        <v>-2.751284694513617</v>
+        <v>-2.772939363413832</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-0.7964767994854168</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.41539314507742</v>
+        <v>-23.53832668540735</v>
       </c>
       <c r="F30" t="n">
-        <v>1.572251934423792</v>
+        <v>0.9881519354430246</v>
       </c>
       <c r="G30" t="n">
-        <v>-2.988661237336952</v>
+        <v>-3.009373260432563</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-0.8017323694300817</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.0346297015315</v>
+        <v>-23.22115255676369</v>
       </c>
       <c r="F31" t="n">
-        <v>1.362827458167541</v>
+        <v>0.8291982866416284</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.018132011033678</v>
+        <v>-3.038961864854864</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-0.8580248662655421</v>
       </c>
       <c r="E32" t="n">
-        <v>-23.85961179714331</v>
+        <v>-23.08310731560053</v>
       </c>
       <c r="F32" t="n">
-        <v>1.449367579951351</v>
+        <v>0.8983256456459421</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.398960916093805</v>
+        <v>-3.439612516417365</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-0.9492961714839472</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.64293418511274</v>
+        <v>-22.84253625088381</v>
       </c>
       <c r="F33" t="n">
-        <v>1.326745071535744</v>
+        <v>0.7783085054958392</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.478915609548226</v>
+        <v>-3.45618737181499</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-1.056134894104312</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.14468041586517</v>
+        <v>-22.35789847659164</v>
       </c>
       <c r="F34" t="n">
-        <v>1.172949790053988</v>
+        <v>0.6456965700119959</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.562915824580741</v>
+        <v>-3.513217442993549</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-1.16078481434292</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.69992179602889</v>
+        <v>-21.98231958497104</v>
       </c>
       <c r="F35" t="n">
-        <v>1.16446597781255</v>
+        <v>0.5960505576361707</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.562392132467072</v>
+        <v>-3.494102680844628</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-1.249248195635417</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.28120376654481</v>
+        <v>-21.61168958382462</v>
       </c>
       <c r="F36" t="n">
-        <v>1.049829774130396</v>
+        <v>0.475208602407039</v>
       </c>
       <c r="G36" t="n">
-        <v>-3.635905412923364</v>
+        <v>-3.545359046469986</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-1.312326868996675</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.77014572511803</v>
+        <v>-21.11144578454511</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9999088233948946</v>
+        <v>0.4584635470724714</v>
       </c>
       <c r="G37" t="n">
-        <v>-3.597400950265847</v>
+        <v>-3.446643083043372</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-1.347714347399896</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.24989688709637</v>
+        <v>-20.65749636811394</v>
       </c>
       <c r="F38" t="n">
-        <v>1.04909660517126</v>
+        <v>0.4170525931840918</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.427724705437078</v>
+        <v>-3.274623316005933</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-1.357179624180902</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.84992703528163</v>
+        <v>-20.29578222520274</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9560757934807957</v>
+        <v>0.3915487872484095</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.387976474009597</v>
+        <v>-3.157656682417952</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-1.348517922938119</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.3979021873682</v>
+        <v>-19.85217572801653</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9335308479873435</v>
+        <v>0.3084388488091324</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.498030371697146</v>
+        <v>-3.28165388263194</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-1.331184049368874</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.79395425727937</v>
+        <v>-19.30462943856986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9681338043980255</v>
+        <v>0.3626933517852452</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.328288665354168</v>
+        <v>-3.036317219680835</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-1.319127224858324</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.17629868611526</v>
+        <v>-18.66469076796913</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9626743141130257</v>
+        <v>0.3467207423183394</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.447913036419019</v>
+        <v>-3.062200702398927</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-1.325111279977805</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.66183664594964</v>
+        <v>-18.19753121797066</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7937181459405508</v>
+        <v>0.1377021274501827</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.367277543216828</v>
+        <v>-2.960525878530083</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-1.362341347930407</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.28928207628548</v>
+        <v>-17.81820792773734</v>
       </c>
       <c r="F44" t="n">
-        <v>0.7774705981139688</v>
+        <v>0.09665775804137149</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.270027917708487</v>
+        <v>-2.841844153269836</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-1.442697501858752</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.00637050417862</v>
+        <v>-17.55750090125004</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8371584067693979</v>
+        <v>0.1783013585623753</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.435697917867689</v>
+        <v>-2.931775181489652</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-1.572252192851564</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.4462556040039</v>
+        <v>-17.06825463635758</v>
       </c>
       <c r="F46" t="n">
-        <v>0.890679740786374</v>
+        <v>0.163402317928491</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.387020735902151</v>
+        <v>-2.881160338703539</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-1.759399280593106</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.11385512715531</v>
+        <v>-16.82983070930691</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8607769210958718</v>
+        <v>0.1625120413352536</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.280907621369961</v>
+        <v>-2.791137664363831</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-2.004590179345953</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.75085793856562</v>
+        <v>-16.53035737410527</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8373809759177072</v>
+        <v>0.1117139063093565</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.272201239980213</v>
+        <v>-2.701363743778115</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-2.310512905632725</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.24880740149395</v>
+        <v>-16.00557859930036</v>
       </c>
       <c r="F49" t="n">
-        <v>0.7651769257455879</v>
+        <v>0.02141629360997177</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.188672347850001</v>
+        <v>-2.636478290894521</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.675408681930658</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.90140314558875</v>
+        <v>-15.69488516056336</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6114471057780405</v>
+        <v>-0.1509962425127188</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.205142464824893</v>
+        <v>-2.562781718198445</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.094785738288034</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.33682377014499</v>
+        <v>-15.13373596846414</v>
       </c>
       <c r="F51" t="n">
-        <v>0.557559187281496</v>
+        <v>-0.2020562235954505</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.270407594490897</v>
+        <v>-2.597057367038083</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.56843907857799</v>
       </c>
       <c r="E52" t="n">
-        <v>-14.97488705808548</v>
+        <v>-14.83427572556534</v>
       </c>
       <c r="F52" t="n">
-        <v>0.6462071698228232</v>
+        <v>-0.1126488874893032</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.408335004928481</v>
+        <v>-2.707320741571101</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.087321735788287</v>
       </c>
       <c r="E53" t="n">
-        <v>-14.42982830617874</v>
+        <v>-14.34310489215514</v>
       </c>
       <c r="F53" t="n">
-        <v>0.7824718577995081</v>
+        <v>0.02611643033015143</v>
       </c>
       <c r="G53" t="n">
-        <v>-3.547113415050777</v>
+        <v>-2.815685732192067</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.653154479495519</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.0627070421939</v>
+        <v>-14.00498307896473</v>
       </c>
       <c r="F54" t="n">
-        <v>0.6521379830101252</v>
+        <v>-0.1245628830752739</v>
       </c>
       <c r="G54" t="n">
-        <v>-3.679581335203362</v>
+        <v>-2.967805198910082</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-5.258209877388153</v>
       </c>
       <c r="E55" t="n">
-        <v>-13.55246072354331</v>
+        <v>-13.5117305694027</v>
       </c>
       <c r="F55" t="n">
-        <v>0.4782329243634778</v>
+        <v>-0.2404428555273913</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.817495653338104</v>
+        <v>-3.087390293066408</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.898489370596502</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.4005638259736</v>
+        <v>-13.40611496237849</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5726415201551645</v>
+        <v>-0.1249163752520005</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.909377434681338</v>
+        <v>-3.102394072123027</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-6.571097040645072</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.04009345183236</v>
+        <v>-13.08840404931833</v>
       </c>
       <c r="F57" t="n">
-        <v>0.4901076430409233</v>
+        <v>-0.2374709027823195</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.075819880708202</v>
+        <v>-3.332975709771506</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.264666923409314</v>
       </c>
       <c r="E58" t="n">
-        <v>-12.81785161109406</v>
+        <v>-12.96893678588757</v>
       </c>
       <c r="F58" t="n">
-        <v>0.5374101332080796</v>
+        <v>-0.1758061563977897</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.466232351448473</v>
+        <v>-3.734987960829546</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.980449021395101</v>
       </c>
       <c r="E59" t="n">
-        <v>-12.4358836756867</v>
+        <v>-12.65478697920036</v>
       </c>
       <c r="F59" t="n">
-        <v>0.4772379093475065</v>
+        <v>-0.2235276002558813</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.659487833695191</v>
+        <v>-3.929670504086013</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.704756570488694</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.96423346581352</v>
+        <v>-12.22723164529811</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3532930783448859</v>
+        <v>-0.3049617239314174</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.767630255167848</v>
+        <v>-4.076710157301439</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-9.432654511269355</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.90349827293075</v>
+        <v>-12.16404819178394</v>
       </c>
       <c r="F61" t="n">
-        <v>0.3791503764572949</v>
+        <v>-0.2594921561621027</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.969526657290106</v>
+        <v>-4.266077225604165</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-10.15345669925721</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.56394939873058</v>
+        <v>-11.88004995854122</v>
       </c>
       <c r="F62" t="n">
-        <v>0.3020105281138449</v>
+        <v>-0.3030109708080002</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.276030559117755</v>
+        <v>-4.528643359094981</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-10.85368790000111</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.3260884407021</v>
+        <v>-11.64667966038745</v>
       </c>
       <c r="F63" t="n">
-        <v>0.2345720761761139</v>
+        <v>-0.3631962869714149</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.274027436782971</v>
+        <v>-4.523380253352607</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-11.52810704589925</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.11713528734816</v>
+        <v>-11.47638807732512</v>
       </c>
       <c r="F64" t="n">
-        <v>0.2039229952236332</v>
+        <v>-0.3243383321371719</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.252333490974231</v>
+        <v>-4.575749464719511</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-12.15992325025575</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.047994836041</v>
+        <v>-11.36982982449631</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2048263641197123</v>
+        <v>-0.3373128042533225</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.257884627379123</v>
+        <v>-4.608702790972136</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-12.74497507806011</v>
       </c>
       <c r="E66" t="n">
-        <v>-10.90027438307781</v>
+        <v>-11.24068734926553</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1833942643678067</v>
+        <v>-0.3632486561827818</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.33955441250581</v>
+        <v>-4.674989120259795</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-13.27209349755352</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.82177293523882</v>
+        <v>-11.22235812528711</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.02540178135204065</v>
+        <v>-0.5849406202017293</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.395720391696815</v>
+        <v>-4.65485315848922</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-13.73361110518429</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.80502787990425</v>
+        <v>-11.21149151392848</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.03710630009254376</v>
+        <v>-0.6080223501116924</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.236792927501102</v>
+        <v>-4.555652779857462</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-14.1269631118684</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.76342054147324</v>
+        <v>-11.14274383170657</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.01745475352711293</v>
+        <v>-0.5357659307282062</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.999377107769241</v>
+        <v>-4.313314254257112</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-14.44253121034212</v>
       </c>
       <c r="E70" t="n">
-        <v>-10.77604152141267</v>
+        <v>-11.2136648362002</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.3198738568681434</v>
+        <v>-0.8402798025239129</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.855113022756262</v>
+        <v>-4.2205291040178</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-14.68401594267385</v>
       </c>
       <c r="E71" t="n">
-        <v>-10.64903309154508</v>
+        <v>-11.11892893283747</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.2845901007096917</v>
+        <v>-0.8083083989844178</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.821020666156407</v>
+        <v>-4.148665453719565</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-14.8503631898642</v>
       </c>
       <c r="E72" t="n">
-        <v>-10.81766195214652</v>
+        <v>-11.29593686725761</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.2581829258779301</v>
+        <v>-0.8330528513552801</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.689953622407888</v>
+        <v>-4.061051763102734</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-14.94439786399495</v>
       </c>
       <c r="E73" t="n">
-        <v>-10.99197287218126</v>
+        <v>-11.43061738659045</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.3583914118285015</v>
+        <v>-0.8851471243625081</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.601554393620553</v>
+        <v>-3.95565872522684</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-14.97308500395588</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.34420818783505</v>
+        <v>-11.77677787372568</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.3922481069772051</v>
+        <v>-0.9203392344010678</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.59424888863487</v>
+        <v>-3.961668092231192</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-14.93825712106776</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.73231641327518</v>
+        <v>-12.08397566760394</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.4614540197985691</v>
+        <v>-1.005530848992179</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.403886805316173</v>
+        <v>-3.800082890558608</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-14.84630401944389</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.82182848780406</v>
+        <v>-12.23045235179717</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.5438962507929181</v>
+        <v>-1.133639032298469</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.138793857376903</v>
+        <v>-3.492963650497399</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-14.69932216136035</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.25119055949847</v>
+        <v>-12.6685731740927</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.5789574378030605</v>
+        <v>-1.185458366946021</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.967690551538386</v>
+        <v>-3.340673983842441</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-14.49326924205384</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.05903801404433</v>
+        <v>-13.44888751576241</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.7688351059166137</v>
+        <v>-1.373764958718567</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.857243884765585</v>
+        <v>-3.227360102747302</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-14.22782644451126</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.62839608002532</v>
+        <v>-13.98578976299876</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.7999686020742383</v>
+        <v>-1.358787364267632</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.746797217992783</v>
+        <v>-3.073630282779754</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-13.8920942363657</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.20649980430457</v>
+        <v>-14.59634930602265</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.8345191892735534</v>
+        <v>-1.43705315065547</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.494246696175888</v>
+        <v>-2.929418566978141</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-13.48052869286854</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.86790985156573</v>
+        <v>-15.22881227170075</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.8650897164089838</v>
+        <v>-1.497971635778022</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.085766847514034</v>
+        <v>-2.55994068848179</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-12.98731738837034</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.7945175851889</v>
+        <v>-16.12144547944964</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.068688117900666</v>
+        <v>-1.699030130518409</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.929156720921307</v>
+        <v>-2.473557674332082</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-12.40574287223123</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.53986238596836</v>
+        <v>-16.90867255701978</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.15920829974836</v>
+        <v>-1.811257350477685</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.78096494505581</v>
+        <v>-2.396954610405142</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-11.74054299666235</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.47518959328411</v>
+        <v>-17.82580146338554</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.309272274920224</v>
+        <v>-1.957210342557247</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.50411510916467</v>
+        <v>-2.160455251872203</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-10.98804652879439</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.50103698244756</v>
+        <v>-18.83710330409183</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.370609713733711</v>
+        <v>-2.091393354382098</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.475966658054959</v>
+        <v>-2.150426547895441</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-10.16252110713049</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.7579111475561</v>
+        <v>-20.07326544610476</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.546478617806617</v>
+        <v>-2.256434924004897</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.235029008858674</v>
+        <v>-1.96929453808016</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-9.280325684728869</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.89213661964336</v>
+        <v>-21.24726533422518</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.507385001521223</v>
+        <v>-2.21459192412274</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.410884820628739</v>
+        <v>-2.149339886759577</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.365873934463428</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.41375024051445</v>
+        <v>-22.72882960070342</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.497146820698993</v>
+        <v>-2.259171215298817</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.215442923807452</v>
+        <v>-2.001187387802605</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-7.455145004843789</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.70826477629295</v>
+        <v>-24.07056807283204</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.703795728752797</v>
+        <v>-2.421908539621472</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.323218760800541</v>
+        <v>-2.108635917224651</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-6.575808078182075</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.27504684196799</v>
+        <v>-25.64754904242078</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.679548783889921</v>
+        <v>-2.409117359745106</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.291378280289464</v>
+        <v>-2.160324328843785</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-5.771469243406367</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.9398378867162</v>
+        <v>-27.27108624091471</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.781367623090024</v>
+        <v>-2.548236169741287</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.444427300509241</v>
+        <v>-2.364119114878093</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-5.073599178031307</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.59228288988465</v>
+        <v>-28.94328752907133</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.893477012323725</v>
+        <v>-2.604035564452724</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.620702065970241</v>
+        <v>-2.500894402665605</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-4.515545009800899</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.4095468935276</v>
+        <v>-30.74173789353071</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.011189907173684</v>
+        <v>-2.731908086307862</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.682248981629195</v>
+        <v>-2.671487108693296</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.120273531083581</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.15829887639979</v>
+        <v>-32.45448604358816</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.911426559519731</v>
+        <v>-2.632864815310204</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.056086596971841</v>
+        <v>-3.038163234381518</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-3.897587009900178</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.01834852572949</v>
+        <v>-34.32021775235118</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.219724106836697</v>
+        <v>-2.911495204387819</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.114386621526048</v>
+        <v>-3.137141043864967</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.85182011213405</v>
       </c>
       <c r="E96" t="n">
-        <v>-35.98453747419708</v>
+        <v>-36.2346790122911</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.478087611115319</v>
+        <v>-3.20353211157536</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.586364138970272</v>
+        <v>-3.639296319359371</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.961981666349657</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.10727108774317</v>
+        <v>-38.32942128236158</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.552438798953481</v>
+        <v>-3.298006168881256</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.719211735905267</v>
+        <v>-3.799349721599472</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.209186479718284</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.36408297469139</v>
+        <v>-40.59665464237181</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.697514606742648</v>
+        <v>-3.453582003549486</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.133321274789062</v>
+        <v>-4.205643155686757</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.545406683919986</v>
       </c>
       <c r="E99" t="n">
-        <v>-42.44649229548497</v>
+        <v>-42.60210740706172</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.90718783675289</v>
+        <v>-3.682435457222858</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.341698366817974</v>
+        <v>-4.448335173463833</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.938893540427718</v>
       </c>
       <c r="E100" t="n">
-        <v>-44.60796603313973</v>
+        <v>-44.6932362015479</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.028095253496231</v>
+        <v>-3.791730001345587</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.386997734650347</v>
+        <v>-4.460589568923688</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-5.320955254691794</v>
       </c>
       <c r="E101" t="n">
-        <v>-46.68710227822289</v>
+        <v>-46.86328539756399</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.145363010049572</v>
+        <v>-3.927719750962596</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.882043889701692</v>
+        <v>-4.929058349206331</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.678249766066578</v>
       </c>
       <c r="E102" t="n">
-        <v>-48.95425708441606</v>
+        <v>-49.07090950273584</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.439455408783264</v>
+        <v>-4.241516065473086</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.213331520808729</v>
+        <v>-5.293927737102394</v>
       </c>
     </row>
   </sheetData>
